--- a/bigcommerce/OrderStatuses.xlsx
+++ b/bigcommerce/OrderStatuses.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kb\bigcommerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB\bigcommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215BFD5-3765-4B84-8C95-23A2FD25D769}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" xr2:uid="{5A2BA2C7-627C-45E5-9809-488514CA6B3F}"/>
+    <workbookView xWindow="7545" yWindow="345" windowWidth="27000" windowHeight="12180" xr2:uid="{5A2BA2C7-627C-45E5-9809-488514CA6B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,10 +475,13 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/bigcommerce/OrderStatuses.xlsx
+++ b/bigcommerce/OrderStatuses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB\bigcommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215BFD5-3765-4B84-8C95-23A2FD25D769}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EF574F-0DEE-4E80-813D-DB2B8939EF94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="345" windowWidth="27000" windowHeight="12180" xr2:uid="{5A2BA2C7-627C-45E5-9809-488514CA6B3F}"/>
+    <workbookView xWindow="30780" yWindow="1905" windowWidth="21600" windowHeight="10875" xr2:uid="{5A2BA2C7-627C-45E5-9809-488514CA6B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,142 +472,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1CCA0A-CC50-4F9B-B943-3EF807DED006}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
